--- a/medicine/Enfance/Les_Six_Compagnons_et_l'Émetteur_pirate/Les_Six_Compagnons_et_l'Émetteur_pirate.xlsx
+++ b/medicine/Enfance/Les_Six_Compagnons_et_l'Émetteur_pirate/Les_Six_Compagnons_et_l'Émetteur_pirate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Six_Compagnons_et_l%27%C3%89metteur_pirate</t>
+          <t>Les_Six_Compagnons_et_l'Émetteur_pirate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Six Compagnons et l'Émetteur pirate est un roman de Paul-Jacques Bonzon, 13e de la série Les Six Compagnons sur 49 publiés.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Six_Compagnons_et_l%27%C3%89metteur_pirate</t>
+          <t>Les_Six_Compagnons_et_l'Émetteur_pirate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alors que Mady doit se rendre durant l'été avec ses parents à Vaugneray un petit village non loin de Lyon, les Compagnons décident de se rendre sur les côtes de la Méditerranée, et arrivent à convainvre M. et Mme Charvet, les parents de Mady de les accompagner. Ils sont pris en charge par un chauffeur routier, ami de l'un d'eux, qui les transporte jusque dans le Gard à Lunel, avant de terminer les derniers kilomètres à vélo.
-Arrivés à Port-le-Roi, les Compagnons apprennent qu'une organisation mystérieuse, l'O.T.L. (Organisation Terroriste du Littoral[1]), met les forces de polices et de gendarmerie sur les dents et fait l'objet de toutes les attentions des journaux méridionaux. Sur place, ils se lient d'amitié avec pêcheur surnommé « le Fada », possédant une barquette, le Pescadon.
+Arrivés à Port-le-Roi, les Compagnons apprennent qu'une organisation mystérieuse, l'O.T.L. (Organisation Terroriste du Littoral), met les forces de polices et de gendarmerie sur les dents et fait l'objet de toutes les attentions des journaux méridionaux. Sur place, ils se lient d'amitié avec pêcheur surnommé « le Fada », possédant une barquette, le Pescadon.
 Après quelques jours, les jeunes gens sont réveillés en pleine nuit par l'orage qui abat leur tente de camping. Tidou et Gnafron cherchant à se protéger de la tempête, se réfugient sous la caravane voisine où résident deux Parisiennes. Ils sont intrigués par leur réveil et leur activité à 2h du matin, avant d'être découvert et chassés de leur abri. Quelque temps plus tard, Tidou découvre une broche en or dans une boîte à couture que La Guille a emmenée. Inquiets, ils préfèrent la cacher en l'enterrant. L'arrivée des gendarmes confirment que cette broche, qui ne devrait pas être là, semble avoir été placée pour les faire accuser de vol. 
 Les soupçons des jeunes gens se tournent vers leurs deux voisines. Ils surveillent discrètement ces deux femmes et les entendent parler, en pleine nuit, et en langage codé, à travers ce qu'il semble être un émetteur. Elles citent notamment une certaine « Germaine » portant une robe de couleur différente.
 Mady vient les rejoindre et les aide. Elle arrive à décoder une partie du message, qui semble faire le lien avec l'O.T.L. En suivant les Parisiennes, les Compagnons découvrent que chaque matin, elles se rendent au marché où elles discutent longuement avec un pêcheur, et se débarrassent discrètement du poisson acheté. Se rendant chez le Fada, ils arrivent à le convaincre du comportement suspect des deux vacancières, mais également du pêcheur de L'Oursin Blanc nommé Bartavel, récemment arrivé à Port-le-Roi. 
